--- a/DESTATIS_Real_GDP.xlsx
+++ b/DESTATIS_Real_GDP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Jascheck\Documents\GitHub\Quaterly-Output-Gap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timjascheck/Desktop/Quaterly-Output-Gap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF433CD-FC5B-4A3A-BC96-535A41C47D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA814123-79B3-6945-B9FB-F8FF63EA01BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="2385" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{D91C66F5-F0F2-1148-A5B5-39C737905D32}"/>
+    <workbookView xWindow="4580" yWindow="2380" windowWidth="21600" windowHeight="11380" activeTab="1" xr2:uid="{D91C66F5-F0F2-1148-A5B5-39C737905D32}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -547,8 +547,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -564,7 +564,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -886,10 +886,10 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
@@ -1975,37 +1975,37 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>139</v>
       </c>
